--- a/medicine/Médecine vétérinaire/Liste_de_substances_toxiques_pour_les_chats/Liste_de_substances_toxiques_pour_les_chats.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_de_substances_toxiques_pour_les_chats/Liste_de_substances_toxiques_pour_les_chats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste non exhaustive de substances toxiques pour les chats. Pour certaines substances mentionnées, l'effet toxique dépend de la dose administrée.
 </t>
@@ -513,53 +525,500 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-aminosides (lors de traitement de longue durée)[1]
-amitraze (acaricide)[1]
-antigel[2]
-aspirine[3]
-B
-bénomyl[2]
-brodifacoum[2]
-C
-caféine[4]
-produits caustiques[1]
-chloralose (herbicide, insecticide et raticide)[1]
-chloramphénicol (lors d'un usage prolongé et à dose élevée)[1]
-chlorophacinone[2] (pesticide)[1]
-coumatétralyle[2]
-D
-produits détergents[1]
-difénacoum[2]
-E
-éthylène glycol[1],[5]
-G
-glyphosate[1]
-H
-hydrocarbures[1]
-I
-ibuprofène[3]
-L
-lindane[1]
-M
-mercatodiméthur (insecticide et herbicide)[1]
-métaldéhyde[5]
-métaux lourds[1]
-méthiocarbe[2]
-O
-organochlorés[1]
-organophosphorés[2]
-P
-paracétamol[6]
-perméthrine[7]
-pyréthrinoïde[2]
-T
-tétramizole[1]
-thiophanage-méthyl[2]
-théobromine[8]
-X
-zylazine[1]
-xylitol (substitut du sucre)[8]</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>aminosides (lors de traitement de longue durée)
+amitraze (acaricide)
+antigel
+aspirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bénomyl
+brodifacoum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>caféine
+produits caustiques
+chloralose (herbicide, insecticide et raticide)
+chloramphénicol (lors d'un usage prolongé et à dose élevée)
+chlorophacinone (pesticide)
+coumatétralyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>produits détergents
+difénacoum</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>éthylène glycol,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>glyphosate</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>hydrocarbures</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ibuprofène</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>lindane</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>mercatodiméthur (insecticide et herbicide)
+métaldéhyde
+métaux lourds
+méthiocarbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>organochlorés
+organophosphorés</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>paracétamol
+perméthrine
+pyréthrinoïde</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>tétramizole
+thiophanage-méthyl
+théobromine</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_substances_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Substances par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>zylazine
+xylitol (substitut du sucre)</t>
         </is>
       </c>
     </row>
